--- a/template/demo.xlsx
+++ b/template/demo.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="7" r:id="rId1"/>
-    <sheet name="性别" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="岗位" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="系统" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="性别" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="岗位" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>导入模版说明：需要导入的数据从第3行开始，蓝色为必填唯一，黄色为必填。</t>
   </si>
@@ -46,10 +47,25 @@
     <t>岗位</t>
   </si>
   <si>
+    <t>授权系统</t>
+  </si>
+  <si>
     <t>是否启用</t>
   </si>
   <si>
     <t>结果</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>SCM</t>
   </si>
   <si>
     <t>男</t>
@@ -87,7 +103,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +115,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -593,137 +615,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +771,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,30 +1093,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="4" width="15.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
+    <col min="3" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="78" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" ht="57" customHeight="1" spans="1:6">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1110,10 +1138,13 @@
       <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1121,6 +1152,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -1133,12 +1201,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A6"/>
@@ -1160,32 +1228,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/template/demo.xlsx
+++ b/template/demo.xlsx
@@ -118,6 +118,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -752,34 +753,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1097,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1105,34 +1106,34 @@
     <col min="2" max="2" width="9.25" style="2" customWidth="1"/>
     <col min="3" max="5" width="15.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">

--- a/template/demo.xlsx
+++ b/template/demo.xlsx
@@ -12,6 +12,9 @@
     <sheet name="性别" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="岗位" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户信息!$A$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1097,7 +1100,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1144,6 +1147,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:G2" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
